--- a/Document/2.Design/Template/File_loi_nhap_hang.xlsx
+++ b/Document/2.Design/Template/File_loi_nhap_hang.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WMS\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\WMS\WMS\Document\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B674FCC-0A81-48D0-89AB-0D2FA869D3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="203"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -84,12 +85,24 @@
   </si>
   <si>
     <t>Số lượng(*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày sản xuất </t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>${item.produceDate}</t>
+  </si>
+  <si>
+    <t>${item.expireDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -498,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,23 +527,25 @@
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="8" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:42" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -556,10 +571,14 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
@@ -572,8 +591,8 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
@@ -589,8 +608,10 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -603,8 +624,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:40" s="6" customFormat="1">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:42" s="6" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,11 +653,15 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="L3" s="1"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -646,8 +673,10 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:40" ht="15.75" customHeight="1">
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:42" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,8 +689,10 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -672,8 +703,10 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -684,8 +717,10 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -696,8 +731,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -708,8 +745,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -720,8 +759,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -732,8 +773,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -744,8 +787,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -756,8 +801,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -768,8 +815,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -780,8 +829,10 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -792,8 +843,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -804,6 +857,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
